--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="240">
   <si>
     <t>成绩位次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,6 +565,193 @@
   </si>
   <si>
     <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子涵</t>
+  </si>
+  <si>
+    <t>欣怡</t>
+  </si>
+  <si>
+    <t>梓涵</t>
+  </si>
+  <si>
+    <t>晨曦</t>
+  </si>
+  <si>
+    <t>紫涵</t>
+  </si>
+  <si>
+    <t>诗涵</t>
+  </si>
+  <si>
+    <t>梦琪</t>
+  </si>
+  <si>
+    <t>嘉怡</t>
+  </si>
+  <si>
+    <t>子萱</t>
+  </si>
+  <si>
+    <t>雨涵</t>
+  </si>
+  <si>
+    <t>可馨</t>
+  </si>
+  <si>
+    <t>梓萱</t>
+  </si>
+  <si>
+    <t>思涵</t>
+  </si>
+  <si>
+    <t>思彤</t>
+  </si>
+  <si>
+    <t>心怡</t>
+  </si>
+  <si>
+    <t>雨萱</t>
+  </si>
+  <si>
+    <t>可欣</t>
+  </si>
+  <si>
+    <t>雨欣</t>
+  </si>
+  <si>
+    <t>涵</t>
+  </si>
+  <si>
+    <t>雨彤</t>
+  </si>
+  <si>
+    <t>雨轩</t>
+  </si>
+  <si>
+    <t>佳怡</t>
+  </si>
+  <si>
+    <t>梦瑶</t>
+  </si>
+  <si>
+    <t>诗琪</t>
+  </si>
+  <si>
+    <t>萱</t>
+  </si>
+  <si>
+    <t>雨馨</t>
+  </si>
+  <si>
+    <t>思琪</t>
+  </si>
+  <si>
+    <t>静怡</t>
+  </si>
+  <si>
+    <t>佳琪</t>
+  </si>
+  <si>
+    <t>一诺</t>
+  </si>
+  <si>
+    <t>子轩</t>
+  </si>
+  <si>
+    <t>浩宇</t>
+  </si>
+  <si>
+    <t>浩然</t>
+  </si>
+  <si>
+    <t>博文</t>
+  </si>
+  <si>
+    <t>宇轩</t>
+  </si>
+  <si>
+    <t>雨泽</t>
+  </si>
+  <si>
+    <t>皓轩</t>
+  </si>
+  <si>
+    <t>浩轩</t>
+  </si>
+  <si>
+    <t>俊杰</t>
+  </si>
+  <si>
+    <t>文博</t>
+  </si>
+  <si>
+    <t>浩</t>
+  </si>
+  <si>
+    <t>峻熙</t>
+  </si>
+  <si>
+    <t>子豪</t>
+  </si>
+  <si>
+    <t>天佑</t>
+  </si>
+  <si>
+    <t>俊熙</t>
+  </si>
+  <si>
+    <t>明轩</t>
+  </si>
+  <si>
+    <t>致远</t>
+  </si>
+  <si>
+    <t>睿</t>
+  </si>
+  <si>
+    <t>宇航</t>
+  </si>
+  <si>
+    <t>泽宇</t>
+  </si>
+  <si>
+    <t>鑫</t>
+  </si>
+  <si>
+    <t>一鸣</t>
+  </si>
+  <si>
+    <t>俊宇</t>
+  </si>
+  <si>
+    <t>硕</t>
+  </si>
+  <si>
+    <t>文轩</t>
+  </si>
+  <si>
+    <t>俊豪</t>
+  </si>
+  <si>
+    <t>子墨</t>
+  </si>
+  <si>
+    <t>从此开始再次循环名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58个不同的名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,5990 +1078,6510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K161"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>18010001</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>181</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3">
         <v>18010002</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>182</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4">
         <v>18010003</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5">
         <v>18010004</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>184</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6">
         <v>18010005</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7">
         <v>18010006</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>186</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8">
         <v>18010007</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>187</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9">
         <v>18010008</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>188</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10">
         <v>18010009</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>189</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11">
         <v>18010010</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>190</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <v>18010011</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13">
         <v>18010012</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>192</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>18010013</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15">
         <v>18010014</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>194</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16">
         <v>18010015</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>195</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17">
         <v>18010016</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>196</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18">
         <v>18010017</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>197</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19">
         <v>18010018</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>198</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20">
         <v>18010019</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>199</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21">
         <v>18010020</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>200</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22">
         <v>18010021</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>201</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23">
         <v>18010022</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>202</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24">
         <v>18010023</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>203</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25">
         <v>18010024</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>204</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26">
         <v>18010025</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>205</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27">
         <v>18010026</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>206</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C28">
         <v>18010027</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>207</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29">
         <v>18010028</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>208</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30">
         <v>18010029</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>209</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31">
         <v>18010030</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>210</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C32">
         <v>18010031</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>211</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C33">
         <v>18010032</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>212</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>3</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34">
         <v>18010033</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>213</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>4</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C35">
         <v>18010034</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>214</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36">
         <v>18010035</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>215</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37">
         <v>18010036</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C38">
         <v>18010037</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>216</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39">
         <v>18010038</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>217</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>4</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40">
         <v>18010039</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>218</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>4</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C41">
         <v>18010040</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="E41" t="s">
+        <v>219</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C42">
         <v>18010041</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
+        <v>220</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C43">
         <v>18010042</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>221</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44">
         <v>18010043</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>222</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>2</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C45">
         <v>18010044</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E45" t="s">
+        <v>223</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>5</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46">
         <v>18010045</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>224</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>4</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C47">
         <v>18010046</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>225</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>5</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48">
         <v>18010047</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>226</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>4</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C49">
         <v>18010048</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="E49" t="s">
+        <v>227</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>4</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C50">
         <v>18010049</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>228</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K50" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C51">
         <v>18010050</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>229</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52">
         <v>18010051</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>230</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53">
         <v>18010052</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="E53" t="s">
+        <v>231</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>4</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K53" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54">
         <v>18010053</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="E54" t="s">
+        <v>232</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>5</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C55">
         <v>18010054</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E55" t="s">
+        <v>233</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55">
-        <v>3</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K55" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C56">
         <v>18010055</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="E56" t="s">
+        <v>234</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>2</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57">
         <v>18010056</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57">
-        <v>5</v>
+        <v>62</v>
+      </c>
+      <c r="E57" t="s">
+        <v>235</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K57" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58">
         <v>18010057</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="E58" t="s">
+        <v>236</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>4</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K58" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59">
         <v>18010058</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="E59" t="s">
+        <v>237</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L59" t="s">
+        <v>177</v>
+      </c>
+      <c r="M59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60">
         <v>18010059</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="E60" t="s">
+        <v>181</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K60" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L60" t="s">
+        <v>177</v>
+      </c>
+      <c r="M60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61">
         <v>18010060</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
+        <v>66</v>
+      </c>
+      <c r="E61" t="s">
+        <v>182</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>3</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K61" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C62">
         <v>18010061</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="E62" t="s">
+        <v>183</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63">
         <v>18010062</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="E63" t="s">
+        <v>184</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>4</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K63" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C64">
         <v>18010063</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="E64" t="s">
+        <v>185</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K64" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C65">
         <v>18010064</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="E65" t="s">
+        <v>186</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K65" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C66">
         <v>18010065</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="E66" t="s">
+        <v>187</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I66">
-        <v>2</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K66" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C67">
         <v>18010066</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67">
-        <v>4</v>
+        <v>72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>188</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K67" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68">
         <v>18010067</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="E68" t="s">
+        <v>189</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K68" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C69">
         <v>18010068</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="E69" t="s">
+        <v>190</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K69" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L69" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70">
         <v>18010069</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>191</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>4</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K70" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71">
         <v>18010070</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="E71" t="s">
+        <v>192</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>4</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K71" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C72">
         <v>18010071</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
-      </c>
-      <c r="E72">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="E72" t="s">
+        <v>193</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K72" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L72" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C73">
         <v>18010072</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="E73" t="s">
+        <v>194</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>5</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K73" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C74">
         <v>18010073</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="E74" t="s">
+        <v>195</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I74">
-        <v>4</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C75">
         <v>18010074</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="E75" t="s">
+        <v>196</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C76">
         <v>18010075</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
-      </c>
-      <c r="E76">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
+        <v>197</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>4</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K76" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C77">
         <v>18010076</v>
       </c>
       <c r="D77" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77">
-        <v>4</v>
+        <v>82</v>
+      </c>
+      <c r="E77" t="s">
+        <v>198</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>3</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L77" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C78">
         <v>18010077</v>
       </c>
       <c r="D78" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="E78" t="s">
+        <v>199</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>5</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K78" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C79">
         <v>18010078</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="E79" t="s">
+        <v>200</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>5</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>5</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C80">
         <v>18010079</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="E80" t="s">
+        <v>201</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>4</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K80" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C81">
         <v>18010080</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="E81" t="s">
+        <v>202</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>3</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C82">
         <v>18010081</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82">
-        <v>3</v>
+        <v>87</v>
+      </c>
+      <c r="E82" t="s">
+        <v>203</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I82">
-        <v>2</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K82" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C83">
         <v>18010082</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83">
-        <v>4</v>
+        <v>88</v>
+      </c>
+      <c r="E83" t="s">
+        <v>204</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>3</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K83" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>3</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C84">
         <v>18010083</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="E84" t="s">
+        <v>205</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K84" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C85">
         <v>18010084</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="E85" t="s">
+        <v>206</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K85" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C86">
         <v>18010085</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
-      </c>
-      <c r="E86">
-        <v>5</v>
+        <v>91</v>
+      </c>
+      <c r="E86" t="s">
+        <v>207</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K86" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C87">
         <v>18010086</v>
       </c>
       <c r="D87" t="s">
-        <v>93</v>
-      </c>
-      <c r="E87">
-        <v>5</v>
+        <v>92</v>
+      </c>
+      <c r="E87" t="s">
+        <v>208</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>3</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K87" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C88">
         <v>18010087</v>
       </c>
       <c r="D88" t="s">
-        <v>94</v>
-      </c>
-      <c r="E88">
-        <v>5</v>
+        <v>93</v>
+      </c>
+      <c r="E88" t="s">
+        <v>209</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>4</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K88" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C89">
         <v>18010088</v>
       </c>
       <c r="D89" t="s">
-        <v>95</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="E89" t="s">
+        <v>210</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C90">
         <v>18010089</v>
       </c>
       <c r="D90" t="s">
-        <v>96</v>
-      </c>
-      <c r="E90">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="E90" t="s">
+        <v>211</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>3</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K90" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91">
         <v>18010090</v>
       </c>
       <c r="D91" t="s">
-        <v>97</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="E91" t="s">
+        <v>212</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>5</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C92">
         <v>18010091</v>
       </c>
       <c r="D92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="E92" t="s">
+        <v>213</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I92">
-        <v>3</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K92" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L92" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C93">
         <v>18010092</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
-      </c>
-      <c r="E93">
-        <v>4</v>
+        <v>98</v>
+      </c>
+      <c r="E93" t="s">
+        <v>214</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>5</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K93" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>5</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L93" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C94">
         <v>18010093</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
-      </c>
-      <c r="E94">
-        <v>4</v>
+        <v>99</v>
+      </c>
+      <c r="E94" t="s">
+        <v>215</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K94" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L94" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C95">
         <v>18010094</v>
       </c>
       <c r="D95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E95" t="s">
+        <v>181</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I95">
-        <v>3</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K95" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L95" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C96">
         <v>18010095</v>
       </c>
       <c r="D96" t="s">
-        <v>102</v>
-      </c>
-      <c r="E96">
-        <v>3</v>
+        <v>101</v>
+      </c>
+      <c r="E96" t="s">
+        <v>216</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>5</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K96" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J96">
+        <v>5</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L96" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C97">
         <v>18010096</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
-      </c>
-      <c r="E97">
-        <v>3</v>
+        <v>102</v>
+      </c>
+      <c r="E97" t="s">
+        <v>217</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>4</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K97" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L97" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C98">
         <v>18010097</v>
       </c>
       <c r="D98" t="s">
-        <v>104</v>
-      </c>
-      <c r="E98">
-        <v>3</v>
+        <v>103</v>
+      </c>
+      <c r="E98" t="s">
+        <v>218</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>5</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K98" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J98">
+        <v>5</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L98" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C99">
         <v>18010098</v>
       </c>
       <c r="D99" t="s">
-        <v>105</v>
-      </c>
-      <c r="E99">
-        <v>3</v>
+        <v>104</v>
+      </c>
+      <c r="E99" t="s">
+        <v>219</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>2</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K99" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L99" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C100">
         <v>18010099</v>
       </c>
       <c r="D100" t="s">
-        <v>106</v>
-      </c>
-      <c r="E100">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="E100" t="s">
+        <v>220</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>4</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K100" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J100">
+        <v>4</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L100" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C101">
         <v>18010100</v>
       </c>
       <c r="D101" t="s">
-        <v>107</v>
-      </c>
-      <c r="E101">
-        <v>3</v>
+        <v>106</v>
+      </c>
+      <c r="E101" t="s">
+        <v>221</v>
       </c>
       <c r="F101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>4</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K101" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L101" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C102">
         <v>18010101</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102">
-        <v>3</v>
+        <v>107</v>
+      </c>
+      <c r="E102" t="s">
+        <v>222</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>5</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K102" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J102">
+        <v>5</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L102" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C103">
         <v>18010102</v>
       </c>
       <c r="D103" t="s">
-        <v>109</v>
-      </c>
-      <c r="E103">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E103" t="s">
+        <v>223</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K103" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L103" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C104">
         <v>18010103</v>
       </c>
       <c r="D104" t="s">
-        <v>110</v>
-      </c>
-      <c r="E104">
-        <v>5</v>
+        <v>109</v>
+      </c>
+      <c r="E104" t="s">
+        <v>224</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>4</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K104" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L104" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C105">
         <v>18010104</v>
       </c>
       <c r="D105" t="s">
-        <v>111</v>
-      </c>
-      <c r="E105">
-        <v>3</v>
+        <v>110</v>
+      </c>
+      <c r="E105" t="s">
+        <v>225</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>5</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K105" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>5</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L105" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C106">
         <v>18010105</v>
       </c>
       <c r="D106" t="s">
-        <v>112</v>
-      </c>
-      <c r="E106">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="E106" t="s">
+        <v>226</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>3</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K106" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L106" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C107">
         <v>18010106</v>
       </c>
       <c r="D107" t="s">
-        <v>113</v>
-      </c>
-      <c r="E107">
-        <v>5</v>
+        <v>112</v>
+      </c>
+      <c r="E107" t="s">
+        <v>227</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>4</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K107" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L107" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C108">
         <v>18010107</v>
       </c>
       <c r="D108" t="s">
-        <v>114</v>
-      </c>
-      <c r="E108">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="E108" t="s">
+        <v>228</v>
       </c>
       <c r="F108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>4</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K108" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>4</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L108" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C109">
         <v>18010108</v>
       </c>
       <c r="D109" t="s">
-        <v>115</v>
-      </c>
-      <c r="E109">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="E109" t="s">
+        <v>229</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I109">
-        <v>3</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K109" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J109">
+        <v>3</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L109" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C110">
         <v>18010109</v>
       </c>
       <c r="D110" t="s">
-        <v>116</v>
-      </c>
-      <c r="E110">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="E110" t="s">
+        <v>230</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>5</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J110">
+        <v>5</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L110" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C111">
         <v>18010110</v>
       </c>
       <c r="D111" t="s">
-        <v>117</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="E111" t="s">
+        <v>231</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>4</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K111" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J111">
+        <v>4</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L111" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C112">
         <v>18010111</v>
       </c>
       <c r="D112" t="s">
-        <v>118</v>
-      </c>
-      <c r="E112">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="E112" t="s">
+        <v>232</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K112" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C113">
         <v>18010112</v>
       </c>
       <c r="D113" t="s">
-        <v>119</v>
-      </c>
-      <c r="E113">
-        <v>4</v>
+        <v>118</v>
+      </c>
+      <c r="E113" t="s">
+        <v>233</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>3</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K113" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J113">
+        <v>3</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L113" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C114">
         <v>18010113</v>
       </c>
       <c r="D114" t="s">
-        <v>120</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="E114" t="s">
+        <v>234</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>5</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K114" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J114">
+        <v>5</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C115">
         <v>18010114</v>
       </c>
       <c r="D115" t="s">
-        <v>121</v>
-      </c>
-      <c r="E115">
-        <v>4</v>
+        <v>120</v>
+      </c>
+      <c r="E115" t="s">
+        <v>235</v>
       </c>
       <c r="F115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K115" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>2</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L115" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C116">
         <v>18010115</v>
       </c>
       <c r="D116" t="s">
-        <v>122</v>
-      </c>
-      <c r="E116">
-        <v>3</v>
+        <v>121</v>
+      </c>
+      <c r="E116" t="s">
+        <v>236</v>
       </c>
       <c r="F116">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K116" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C117">
         <v>18010116</v>
       </c>
       <c r="D117" t="s">
-        <v>123</v>
-      </c>
-      <c r="E117">
-        <v>5</v>
+        <v>122</v>
+      </c>
+      <c r="E117" t="s">
+        <v>237</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>4</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K117" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <v>4</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L117" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C118">
         <v>18010117</v>
       </c>
       <c r="D118" t="s">
-        <v>124</v>
-      </c>
-      <c r="E118">
-        <v>3</v>
+        <v>123</v>
+      </c>
+      <c r="E118" t="s">
+        <v>181</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>5</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K118" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>5</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L118" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C119">
         <v>18010118</v>
       </c>
       <c r="D119" t="s">
-        <v>125</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="E119" t="s">
+        <v>182</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I119">
-        <v>4</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K119" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>4</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L119" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C120">
         <v>18010119</v>
       </c>
       <c r="D120" t="s">
-        <v>126</v>
-      </c>
-      <c r="E120">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="E120" t="s">
+        <v>183</v>
       </c>
       <c r="F120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>5</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K120" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>5</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L120" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C121">
         <v>18010120</v>
       </c>
       <c r="D121" t="s">
-        <v>127</v>
-      </c>
-      <c r="E121">
-        <v>3</v>
+        <v>126</v>
+      </c>
+      <c r="E121" t="s">
+        <v>184</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K121" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L121" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C122">
         <v>18010121</v>
       </c>
       <c r="D122" t="s">
-        <v>128</v>
-      </c>
-      <c r="E122">
-        <v>4</v>
+        <v>127</v>
+      </c>
+      <c r="E122" t="s">
+        <v>185</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>5</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K122" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <v>5</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L122" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C123">
         <v>18010122</v>
       </c>
       <c r="D123" t="s">
-        <v>129</v>
-      </c>
-      <c r="E123">
-        <v>4</v>
+        <v>128</v>
+      </c>
+      <c r="E123" t="s">
+        <v>186</v>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G123">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I123">
-        <v>1</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K123" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C124">
         <v>18010123</v>
       </c>
       <c r="D124" t="s">
-        <v>130</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="E124" t="s">
+        <v>187</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I124">
-        <v>4</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K124" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J124">
+        <v>4</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L124" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C125">
         <v>18010124</v>
       </c>
       <c r="D125" t="s">
-        <v>131</v>
-      </c>
-      <c r="E125">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="E125" t="s">
+        <v>188</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>4</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K125" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J125">
+        <v>4</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L125" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C126">
         <v>18010125</v>
       </c>
       <c r="D126" t="s">
-        <v>132</v>
-      </c>
-      <c r="E126">
-        <v>3</v>
+        <v>131</v>
+      </c>
+      <c r="E126" t="s">
+        <v>189</v>
       </c>
       <c r="F126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>5</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K126" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>5</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C127">
         <v>18010126</v>
       </c>
       <c r="D127" t="s">
-        <v>133</v>
-      </c>
-      <c r="E127">
-        <v>4</v>
+        <v>132</v>
+      </c>
+      <c r="E127" t="s">
+        <v>190</v>
       </c>
       <c r="F127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G127">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K127" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L127" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C128">
         <v>18010127</v>
       </c>
       <c r="D128" t="s">
-        <v>134</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="E128" t="s">
+        <v>191</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I128">
-        <v>5</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K128" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>5</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L128" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C129">
         <v>18010128</v>
       </c>
       <c r="D129" t="s">
-        <v>135</v>
-      </c>
-      <c r="E129">
-        <v>3</v>
+        <v>134</v>
+      </c>
+      <c r="E129" t="s">
+        <v>192</v>
       </c>
       <c r="F129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I129">
-        <v>2</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K129" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C130">
         <v>18010129</v>
       </c>
       <c r="D130" t="s">
-        <v>136</v>
-      </c>
-      <c r="E130">
-        <v>4</v>
+        <v>135</v>
+      </c>
+      <c r="E130" t="s">
+        <v>193</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I130">
-        <v>2</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K130" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L130" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C131">
         <v>18010130</v>
       </c>
       <c r="D131" t="s">
-        <v>137</v>
-      </c>
-      <c r="E131">
-        <v>3</v>
+        <v>136</v>
+      </c>
+      <c r="E131" t="s">
+        <v>194</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I131">
-        <v>5</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>5</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C132">
         <v>18010131</v>
       </c>
       <c r="D132" t="s">
-        <v>138</v>
-      </c>
-      <c r="E132">
-        <v>4</v>
+        <v>137</v>
+      </c>
+      <c r="E132" t="s">
+        <v>195</v>
       </c>
       <c r="F132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K132" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L132" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C133">
         <v>18010132</v>
       </c>
       <c r="D133" t="s">
-        <v>139</v>
-      </c>
-      <c r="E133">
-        <v>2</v>
+        <v>138</v>
+      </c>
+      <c r="E133" t="s">
+        <v>196</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>4</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K133" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J133">
+        <v>4</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L133" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C134">
         <v>18010133</v>
       </c>
       <c r="D134" t="s">
-        <v>140</v>
-      </c>
-      <c r="E134">
-        <v>4</v>
+        <v>139</v>
+      </c>
+      <c r="E134" t="s">
+        <v>197</v>
       </c>
       <c r="F134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K134" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C135">
         <v>18010134</v>
       </c>
       <c r="D135" t="s">
-        <v>141</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="E135" t="s">
+        <v>198</v>
       </c>
       <c r="F135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I135">
-        <v>4</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K135" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>4</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L135" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C136">
         <v>18010135</v>
       </c>
       <c r="D136" t="s">
-        <v>142</v>
-      </c>
-      <c r="E136">
-        <v>3</v>
+        <v>141</v>
+      </c>
+      <c r="E136" t="s">
+        <v>199</v>
       </c>
       <c r="F136">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K136" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C137">
         <v>18010136</v>
       </c>
       <c r="D137" t="s">
-        <v>143</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="E137" t="s">
+        <v>200</v>
       </c>
       <c r="F137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>2</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K137" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C138">
         <v>18010137</v>
       </c>
       <c r="D138" t="s">
-        <v>144</v>
-      </c>
-      <c r="E138">
-        <v>4</v>
+        <v>143</v>
+      </c>
+      <c r="E138" t="s">
+        <v>201</v>
       </c>
       <c r="F138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>3</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K138" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>3</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C139">
         <v>18010138</v>
       </c>
       <c r="D139" t="s">
-        <v>145</v>
-      </c>
-      <c r="E139">
-        <v>3</v>
+        <v>144</v>
+      </c>
+      <c r="E139" t="s">
+        <v>202</v>
       </c>
       <c r="F139">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>4</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K139" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>4</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C140">
         <v>18010139</v>
       </c>
       <c r="D140" t="s">
-        <v>146</v>
-      </c>
-      <c r="E140">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="E140" t="s">
+        <v>203</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H140">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>1</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K140" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C141">
         <v>18010140</v>
       </c>
       <c r="D141" t="s">
-        <v>147</v>
-      </c>
-      <c r="E141">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="E141" t="s">
+        <v>204</v>
       </c>
       <c r="F141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K141" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J141">
+        <v>2</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C142">
         <v>18010141</v>
       </c>
       <c r="D142" t="s">
-        <v>148</v>
-      </c>
-      <c r="E142">
-        <v>2</v>
+        <v>147</v>
+      </c>
+      <c r="E142" t="s">
+        <v>205</v>
       </c>
       <c r="F142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>4</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K142" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J142">
+        <v>4</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L142" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C143">
         <v>18010142</v>
       </c>
       <c r="D143" t="s">
-        <v>149</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="E143" t="s">
+        <v>206</v>
       </c>
       <c r="F143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I143">
-        <v>4</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K143" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>4</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C144">
         <v>18010143</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="E144" t="s">
+        <v>207</v>
       </c>
       <c r="F144">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>3</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K144" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>3</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C145">
         <v>18010144</v>
       </c>
       <c r="D145" t="s">
-        <v>151</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="E145" t="s">
+        <v>208</v>
       </c>
       <c r="F145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>5</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K145" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J145">
+        <v>5</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C146">
         <v>18010145</v>
       </c>
       <c r="D146" t="s">
-        <v>152</v>
-      </c>
-      <c r="E146">
-        <v>5</v>
+        <v>151</v>
+      </c>
+      <c r="E146" t="s">
+        <v>209</v>
       </c>
       <c r="F146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>3</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K146" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>3</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C147">
         <v>18010146</v>
       </c>
       <c r="D147" t="s">
-        <v>153</v>
-      </c>
-      <c r="E147">
-        <v>4</v>
+        <v>152</v>
+      </c>
+      <c r="E147" t="s">
+        <v>210</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G147">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I147">
-        <v>1</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K147" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C148">
         <v>18010147</v>
       </c>
       <c r="D148" t="s">
-        <v>154</v>
-      </c>
-      <c r="E148">
-        <v>3</v>
+        <v>153</v>
+      </c>
+      <c r="E148" t="s">
+        <v>211</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H148">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K148" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C149">
         <v>18010148</v>
       </c>
       <c r="D149" t="s">
-        <v>155</v>
-      </c>
-      <c r="E149">
-        <v>4</v>
+        <v>154</v>
+      </c>
+      <c r="E149" t="s">
+        <v>212</v>
       </c>
       <c r="F149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>2</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C150">
         <v>18010149</v>
       </c>
       <c r="D150" t="s">
-        <v>156</v>
-      </c>
-      <c r="E150">
-        <v>3</v>
+        <v>155</v>
+      </c>
+      <c r="E150" t="s">
+        <v>213</v>
       </c>
       <c r="F150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I150">
-        <v>2</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K150" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L150" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C151">
         <v>18010150</v>
       </c>
       <c r="D151" t="s">
-        <v>157</v>
-      </c>
-      <c r="E151">
-        <v>4</v>
+        <v>156</v>
+      </c>
+      <c r="E151" t="s">
+        <v>214</v>
       </c>
       <c r="F151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>3</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K151" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J151">
+        <v>3</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L151" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C152">
         <v>18010151</v>
       </c>
       <c r="D152" t="s">
-        <v>158</v>
-      </c>
-      <c r="E152">
-        <v>5</v>
+        <v>157</v>
+      </c>
+      <c r="E152" t="s">
+        <v>215</v>
       </c>
       <c r="F152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>2</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K152" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>2</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L152" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C153">
         <v>18010152</v>
       </c>
       <c r="D153" t="s">
-        <v>159</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="E153" t="s">
+        <v>181</v>
       </c>
       <c r="F153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I153">
-        <v>2</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K153" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L153" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C154">
         <v>18010153</v>
       </c>
       <c r="D154" t="s">
-        <v>160</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="E154" t="s">
+        <v>216</v>
       </c>
       <c r="F154">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>2</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J154">
+        <v>2</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L154" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C155">
         <v>18010154</v>
       </c>
       <c r="D155" t="s">
-        <v>161</v>
-      </c>
-      <c r="E155">
-        <v>5</v>
+        <v>160</v>
+      </c>
+      <c r="E155" t="s">
+        <v>217</v>
       </c>
       <c r="F155">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>2</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K155" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J155">
+        <v>2</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L155" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C156">
         <v>18010155</v>
       </c>
       <c r="D156" t="s">
-        <v>162</v>
-      </c>
-      <c r="E156">
-        <v>3</v>
+        <v>161</v>
+      </c>
+      <c r="E156" t="s">
+        <v>218</v>
       </c>
       <c r="F156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>5</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K156" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J156">
+        <v>5</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L156" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C157">
         <v>18010156</v>
       </c>
       <c r="D157" t="s">
-        <v>163</v>
-      </c>
-      <c r="E157">
-        <v>5</v>
+        <v>162</v>
+      </c>
+      <c r="E157" t="s">
+        <v>219</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I157">
-        <v>2</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K157" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J157">
+        <v>2</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L157" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C158">
         <v>18010157</v>
       </c>
       <c r="D158" t="s">
-        <v>164</v>
-      </c>
-      <c r="E158">
-        <v>4</v>
+        <v>163</v>
+      </c>
+      <c r="E158" t="s">
+        <v>220</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>1</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K158" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L158" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C159">
         <v>18010158</v>
       </c>
       <c r="D159" t="s">
-        <v>165</v>
-      </c>
-      <c r="E159">
-        <v>5</v>
+        <v>164</v>
+      </c>
+      <c r="E159" t="s">
+        <v>221</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>4</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K159" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J159">
+        <v>4</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L159" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C160">
         <v>18010159</v>
       </c>
       <c r="D160" t="s">
-        <v>166</v>
-      </c>
-      <c r="E160">
-        <v>4</v>
+        <v>165</v>
+      </c>
+      <c r="E160" t="s">
+        <v>222</v>
       </c>
       <c r="F160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>3</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K160" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>3</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L160" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C161">
         <v>18010160</v>
       </c>
       <c r="D161" t="s">
-        <v>167</v>
-      </c>
-      <c r="E161">
-        <v>2</v>
+        <v>166</v>
+      </c>
+      <c r="E161" t="s">
+        <v>223</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I161">
-        <v>4</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K161" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J161">
+        <v>4</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L161" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C162">
         <v>18010161</v>
       </c>
       <c r="D162" t="s">
-        <v>168</v>
-      </c>
-      <c r="E162">
-        <v>4</v>
+        <v>167</v>
+      </c>
+      <c r="E162" t="s">
+        <v>224</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>5</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J162">
+        <v>5</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L162" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C163">
         <v>18010162</v>
       </c>
       <c r="D163" t="s">
-        <v>169</v>
-      </c>
-      <c r="E163">
-        <v>4</v>
+        <v>168</v>
+      </c>
+      <c r="E163" t="s">
+        <v>225</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G163">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I163">
-        <v>3</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J163">
+        <v>3</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L163" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C164">
         <v>18010163</v>
       </c>
       <c r="D164" t="s">
-        <v>170</v>
-      </c>
-      <c r="E164">
-        <v>4</v>
+        <v>169</v>
+      </c>
+      <c r="E164" t="s">
+        <v>226</v>
       </c>
       <c r="F164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>2</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>2</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L164" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C165">
         <v>18010164</v>
       </c>
       <c r="D165" t="s">
-        <v>171</v>
-      </c>
-      <c r="E165">
-        <v>3</v>
+        <v>170</v>
+      </c>
+      <c r="E165" t="s">
+        <v>227</v>
       </c>
       <c r="F165">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I165">
-        <v>2</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K165" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L165" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C166">
         <v>18010165</v>
       </c>
       <c r="D166" t="s">
-        <v>172</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="E166" t="s">
+        <v>228</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I166">
-        <v>5</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K166" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J166">
+        <v>5</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L166" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C167">
         <v>18010166</v>
       </c>
       <c r="D167" t="s">
-        <v>173</v>
-      </c>
-      <c r="E167">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="E167" t="s">
+        <v>229</v>
       </c>
       <c r="F167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>5</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K167" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J167">
+        <v>5</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L167" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C168">
         <v>18010167</v>
       </c>
       <c r="D168" t="s">
-        <v>174</v>
-      </c>
-      <c r="E168">
-        <v>5</v>
+        <v>173</v>
+      </c>
+      <c r="E168" t="s">
+        <v>230</v>
       </c>
       <c r="F168">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>2</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K168" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L168" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C169">
         <v>18010168</v>
       </c>
       <c r="D169" t="s">
-        <v>175</v>
-      </c>
-      <c r="E169">
-        <v>3</v>
+        <v>174</v>
+      </c>
+      <c r="E169" t="s">
+        <v>231</v>
       </c>
       <c r="F169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>4</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K169" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>4</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L169" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C170">
         <v>18010169</v>
       </c>
       <c r="D170" t="s">
-        <v>176</v>
-      </c>
-      <c r="E170">
-        <v>5</v>
+        <v>175</v>
+      </c>
+      <c r="E170" t="s">
+        <v>232</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>3</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K170" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J170">
+        <v>3</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L170" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C171">
         <v>18010170</v>
       </c>
       <c r="D171" t="s">
-        <v>177</v>
-      </c>
-      <c r="E171">
-        <v>2</v>
+        <v>176</v>
+      </c>
+      <c r="E171" t="s">
+        <v>233</v>
       </c>
       <c r="F171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>3</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>179</v>
+        <v>5</v>
+      </c>
+      <c r="J171">
+        <v>3</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6894,7 +7597,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
